--- a/src/test/resources/testdata/DataLoader/Excel/DevOps.xlsx
+++ b/src/test/resources/testdata/DataLoader/Excel/DevOps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FE16D1-E718-47C9-B1D4-B2E5A20824CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BEA22A-31E5-4226-A346-2D42450BF82F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{91C6D82E-3285-4A5C-AD84-3B2AE288AA63}"/>
   </bookViews>
@@ -3594,22 +3594,22 @@
     <t>AB121</t>
   </si>
   <si>
-    <t>CodeCommit_DevopsDataLoaderEntity_Automation</t>
-  </si>
-  <si>
-    <t>CodeBranch_DevopsDataLoaderEntity_Automation</t>
-  </si>
-  <si>
-    <t>Build_DevopsDataLoaderEntity_Automation</t>
-  </si>
-  <si>
-    <t>Deployment_DevopsDataLoaderEntity_Automation</t>
-  </si>
-  <si>
-    <t>Environment_DevopsDataLoaderEntity_Automation</t>
-  </si>
-  <si>
-    <t>TestResult_DevopsDataLoaderEntity_Automation</t>
+    <t>CodeCommit_Automation</t>
+  </si>
+  <si>
+    <t>CodeBranch_Automation</t>
+  </si>
+  <si>
+    <t>Build_Automation</t>
+  </si>
+  <si>
+    <t>Deployment_Automation</t>
+  </si>
+  <si>
+    <t>Environment_Automation</t>
+  </si>
+  <si>
+    <t>TestResult_Automation</t>
   </si>
 </sst>
 </file>
@@ -4757,11 +4757,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="10.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="54" width="65.44140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="15.44140625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="52" width="10.44140625" collapsed="false"/>
-    <col min="5" max="16384" style="52" width="8.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="10.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="54" width="65.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="15.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="52" width="10.44140625" collapsed="true"/>
+    <col min="5" max="16384" style="52" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5044,13 +5044,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="66.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="121.21875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="66.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="121.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="28" customFormat="1">
@@ -12067,71 +12067,71 @@
   <dimension ref="A1:BN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="7.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.77734375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="8" width="24.0" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="22.77734375" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="8" width="56.5546875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="8" width="47.5546875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="8" width="52.44140625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="8" width="57.0" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="48" width="52.21875" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="8" width="51.77734375" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="8" width="56.21875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="8" width="40.5546875" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="8" width="61.77734375" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="8" width="47.44140625" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="8" width="53.5546875" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="8" width="59.5546875" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="8" width="37.5546875" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="8" width="36.44140625" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="8" width="39.77734375" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="8" width="44.0" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="8" width="47.44140625" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="8" width="54.5546875" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="8" width="39.44140625" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="8" width="52.77734375" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="8" width="44.5546875" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="8" width="53.21875" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="8" width="42.21875" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="8" width="44.21875" collapsed="false"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="8" width="46.21875" collapsed="false"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="8" width="45.44140625" collapsed="false"/>
-    <col min="44" max="45" bestFit="true" customWidth="true" style="8" width="44.77734375" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="8" width="19.5546875" collapsed="false"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="8" width="33.44140625" collapsed="false"/>
-    <col min="48" max="52" customWidth="true" style="8" width="33.44140625" collapsed="false"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="39.5546875" collapsed="false"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="false"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="34.21875" collapsed="false"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="false"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="22.44140625" collapsed="false"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="40.21875" collapsed="false"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="false"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.5546875" collapsed="false"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="false"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="33.0" collapsed="false"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="7.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="8" width="24.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="22.77734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="8" width="56.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="8" width="47.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="8" width="52.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="8" width="57.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="48" width="52.21875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="8" width="51.77734375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="8" width="56.21875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="8" width="40.5546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="8" width="61.77734375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="8" width="47.44140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="8" width="53.5546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="8" width="59.5546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="8" width="37.5546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="8" width="36.44140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="8" width="39.77734375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="8" width="44.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="8" width="47.44140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="8" width="54.5546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="8" width="39.44140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="8" width="52.77734375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="8" width="44.5546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="8" width="53.21875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="8" width="42.21875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="8" width="44.21875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="8" width="46.21875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="8" width="45.44140625" collapsed="true"/>
+    <col min="44" max="45" bestFit="true" customWidth="true" style="8" width="44.77734375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="8" width="19.5546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="8" width="33.44140625" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="8" width="33.44140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="33.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="28.8">
@@ -12336,7 +12336,7 @@
     </row>
     <row r="2" spans="1:66" s="127" customFormat="1">
       <c r="A2" s="128" t="n">
-        <v>6.0917544E7</v>
+        <v>4.4037724E7</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>1155</v>
@@ -12421,54 +12421,54 @@
   <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AS2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.0" collapsed="false"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="7" width="13.77734375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="11.21875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.21875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="12.5546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="12.77734375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="20.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="14.21875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="21.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="29.77734375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="7" width="18.77734375" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="7" width="10.21875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="7" width="11.44140625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="7" width="16.21875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="60.0" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="50.5546875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="55.77734375" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="60.77734375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="9" width="55.21875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="55.21875" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="59.5546875" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="43.21875" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="66.5546875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="50.77734375" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="56.77734375" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="63.44140625" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="40.0" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="38.44140625" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="42.21875" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="46.5546875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="50.21875" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="57.77734375" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="41.77734375" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="56.44140625" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="47.44140625" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="56.5546875" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="44.77734375" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="47.21875" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="49.21875" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="48.44140625" collapsed="false"/>
-    <col min="42" max="43" bestFit="true" customWidth="true" width="47.77734375" collapsed="false"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="25.77734375" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="27.5546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="7" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="12.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="12.77734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="21.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="29.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="18.77734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="7" width="10.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="7" width="11.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="7" width="16.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="50.5546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="55.77734375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="60.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="9" width="55.21875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="55.21875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="59.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="66.5546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="50.77734375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="56.77734375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="63.44140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="50.21875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="57.77734375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="41.77734375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="56.44140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="56.5546875" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="44.77734375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="49.21875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="48.44140625" collapsed="true"/>
+    <col min="42" max="43" bestFit="true" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="27.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -12610,7 +12610,7 @@
     </row>
     <row r="2" spans="1:45" s="127" customFormat="1">
       <c r="A2" s="128" t="n">
-        <v>7.5192532E7</v>
+        <v>3.8037102E7</v>
       </c>
       <c r="B2" s="143" t="s">
         <v>1155</v>
@@ -12677,62 +12677,62 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BE2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="60.0" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="50.5546875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="55.77734375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="60.77734375" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="47" width="55.21875" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="55.21875" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="59.5546875" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="43.21875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="66.5546875" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.77734375" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="56.77734375" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="63.44140625" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="40.0" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="38.44140625" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="42.21875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="46.5546875" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="50.21875" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="57.77734375" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="41.77734375" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="56.44140625" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="47.44140625" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="56.5546875" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="44.77734375" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="47.21875" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="49.21875" collapsed="false"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="48.44140625" collapsed="false"/>
-    <col min="43" max="44" bestFit="true" customWidth="true" width="47.77734375" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="23.77734375" collapsed="false"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="25.21875" collapsed="false"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="38.0" collapsed="false"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="31.5546875" collapsed="false"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="17.77734375" collapsed="false"/>
-    <col min="52" max="54" customWidth="true" width="17.77734375" collapsed="false"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="22.77734375" collapsed="false"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="39.5546875" collapsed="false"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="50.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="55.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="60.77734375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="47" width="55.21875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="55.21875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="59.5546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="66.5546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.77734375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="56.77734375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="63.44140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="50.21875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="57.77734375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="41.77734375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="56.44140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="56.5546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="44.77734375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="49.21875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="48.44140625" collapsed="true"/>
+    <col min="43" max="44" bestFit="true" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="25.21875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="52" max="54" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="24" width="35.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15.6">
@@ -12910,7 +12910,7 @@
     </row>
     <row r="2" spans="1:57" s="127" customFormat="1">
       <c r="A2" s="128" t="n">
-        <v>1.6412888E7</v>
+        <v>4.8999772E7</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>1155</v>
@@ -12999,85 +12999,85 @@
   <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:CI2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="35.44140625" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.77734375" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="26.77734375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="29.21875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="33.44140625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="32.0" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="36.44140625" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.21875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="40.0" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="40.44140625" collapsed="false"/>
-    <col min="27" max="28" bestFit="true" customWidth="true" width="26.21875" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="27.21875" collapsed="false"/>
-    <col min="30" max="31" bestFit="true" customWidth="true" width="31.5546875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="32.5546875" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="38.77734375" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="32.5546875" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="44.77734375" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="37.44140625" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="36.21875" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="38.77734375" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="33.77734375" collapsed="false"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="38.21875" collapsed="false"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="36.21875" collapsed="false"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="34.5546875" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="35.0" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="35.21875" collapsed="false"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="35.77734375" collapsed="false"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="37.5546875" collapsed="false"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="36.77734375" collapsed="false"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="42.21875" collapsed="false"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="42.5546875" collapsed="false"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="37.44140625" collapsed="false"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="37.44140625" collapsed="false"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="52.21875" collapsed="false"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="38.21875" collapsed="false"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="44.77734375" collapsed="false"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="46.21875" collapsed="false"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="31.0" collapsed="false"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="47.21875" collapsed="false"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="42.21875" collapsed="false"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="30.77734375" collapsed="false"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="26.21875" collapsed="false"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="32.0" collapsed="false"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="41.44140625" collapsed="false"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="38.77734375" collapsed="false"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="41.44140625" collapsed="false"/>
-    <col min="71" max="80" customWidth="true" width="41.44140625" collapsed="false"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="82" max="82" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="35.0" collapsed="false"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" style="24" width="32.5546875" collapsed="false"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="12.5546875" collapsed="false"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="28.21875" collapsed="false"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" style="24" width="32.5546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="27" max="28" bestFit="true" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="30" max="31" bestFit="true" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="44.77734375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="38.21875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="35.21875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="36.77734375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="42.5546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="52.21875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="38.21875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="44.77734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="46.21875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="71" max="80" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" style="24" width="32.5546875" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="24" width="32.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:87">
@@ -13345,7 +13345,7 @@
     </row>
     <row r="2" spans="1:87" s="127" customFormat="1">
       <c r="A2" s="128" t="n">
-        <v>1.0207669E7</v>
+        <v>7.3536115E7</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>1155</v>
@@ -13458,72 +13458,72 @@
   <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BM2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.44140625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.77734375" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="27.5546875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="31.5546875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="30.44140625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="34.44140625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.77734375" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="37.21875" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="37.77734375" collapsed="false"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="25.77734375" collapsed="false"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="31.0" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="28.21875" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="31.21875" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="36.5546875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="30.5546875" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="42.44140625" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="35.44140625" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="34.0" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="36.5546875" collapsed="false"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="31.44140625" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="36.0" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="34.21875" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="32.44140625" collapsed="false"/>
-    <col min="41" max="42" bestFit="true" customWidth="true" width="32.77734375" collapsed="false"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="33.21875" collapsed="false"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="35.5546875" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="34.44140625" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="39.5546875" collapsed="false"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="40.0" collapsed="false"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="31.0" collapsed="false"/>
-    <col min="49" max="49" customWidth="true" width="54.5546875" collapsed="false"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="36.44140625" collapsed="false"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="35.5546875" collapsed="false"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="36.77734375" collapsed="false"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="49.21875" collapsed="false"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="36.5546875" collapsed="false"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="35.77734375" collapsed="false"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="42.44140625" collapsed="false"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="43.77734375" collapsed="false"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="29.21875" collapsed="false"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="44.5546875" collapsed="false"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="40.21875" collapsed="false"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="29.21875" collapsed="false"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="30.21875" collapsed="false"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="39.21875" collapsed="false"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="47.21875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="37.77734375" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="54.5546875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="36.77734375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="49.21875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="43.77734375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="44.5546875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="47.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="28.8">
@@ -13725,7 +13725,7 @@
     </row>
     <row r="2" spans="1:65" s="127" customFormat="1">
       <c r="A2" s="128" t="n">
-        <v>2.3742252E7</v>
+        <v>4.7979534E7</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>1155</v>
@@ -13809,42 +13809,42 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.5546875" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="36.21875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="37.21875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="35.77734375" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="39.21875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="39.77734375" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="38.44140625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="39.44140625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="43.21875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="29.21875" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="30.44140625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="30.77734375" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="48.21875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="50.77734375" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="43.21875" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="43.0" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="42.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="42.77734375" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="30.77734375" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="24" width="36.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="39.77734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="50.77734375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="42.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="42.77734375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="24" width="36.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -13947,7 +13947,7 @@
     </row>
     <row r="2" spans="1:32" s="127" customFormat="1">
       <c r="A2" s="128" t="n">
-        <v>9.1893117E7</v>
+        <v>9.6280681E7</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>1155</v>
@@ -14008,6 +14008,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="769fa2bda0b72186b7f0bbed304cde40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ce9b0e06efb0ed367ed0e4db94f5f60" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -14192,12 +14198,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBCD2FAE-5103-459A-900C-7294D6A17988}">
   <ds:schemaRefs>
@@ -14207,6 +14207,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000499C0-3C22-4EBB-A842-F4B0AEAE2CDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0a4f0a2d-94cf-4297-bd91-d28c9719267c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="673486b5-591b-41ca-a9c1-26091b0c3bf6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2283C5BE-3DB1-4466-B9EB-44A9D22440C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14223,21 +14240,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000499C0-3C22-4EBB-A842-F4B0AEAE2CDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0a4f0a2d-94cf-4297-bd91-d28c9719267c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="673486b5-591b-41ca-a9c1-26091b0c3bf6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>